--- a/files/templates/final_review.xlsx
+++ b/files/templates/final_review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73fda878ac7a2693/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olato\PycharmProjects\site_qa_review\files\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E88F074-B763-4BCF-9811-93C9C9CB6679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C6B313-FFF3-457C-8199-EE5FE61E1AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="2496" windowWidth="17304" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,12 +147,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,9 +222,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -264,7 +262,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -370,7 +368,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -512,7 +510,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -523,7 +521,7 @@
   <dimension ref="A2:I272"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,41 +537,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7">
+      <c r="B5" s="6">
         <v>0.94</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7">
+      <c r="B6" s="6">
         <v>0.94</v>
       </c>
     </row>
@@ -3516,14 +3511,7 @@
       <c r="I272" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="B5">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0.89"/>
@@ -3535,7 +3523,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="B6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0.89"/>
